--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_27.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1083333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.357029, 23.632675)]</t>
+          <t>[['A#:min/F', 'F', 'A#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:08.540000', '0:00:14.080000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:13.360000', '0:00:18.320000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_20</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09743589743589744</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['G:maj', 'A:min/C', 'D:7', 'G:maj'], ['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(59.182426, 64.464965)]</t>
+          <t>[['Eb', 'F:min', 'Bb:7', 'Eb'], ['F:min', 'Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:22.460000', '0:00:28.940000'), ('0:00:06.640000', '0:00:13.600000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:06.260000', '0:00:12.340000'), ('0:00:07.120000', '0:00:14.120000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(59.68, 65.78)]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(100.74, 121.4)]</t>
+          <t>[('0:02:07.600000', '0:02:12.400000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1945701357466063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'A/3', 'E/5', 'A/3']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(24.317664, 32.096349)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.404, 18.573)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:01.740000', '0:02:05')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2728635682158921</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A', 'B', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_252</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1227106227106227</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'A', 'D', 'G', 'D']]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(30.773847, 40.479788)]</t>
+          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(31.43458, 42.278299)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:30.128000', '0:01:39.300000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1871794871794872</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Db', 'Ab', 'Db', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07672413793103448</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.802834, 6.531178)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(102.174263, 115.003287)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:21.940000', '0:00:25.360000'), ('0:00:11.820000', '0:00:16.400000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:19.480000', '0:00:25.860000'), ('0:00:09.140000', '0:00:16.920000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1988636363636364</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.899614, 17.734807), (5.91585, 14.867142)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(24.401147, 28.461467), (8.158789, 22.58999)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:17.360000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:03:44.020000', '0:04:01.440000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(142.14, 146.8)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07900136798905609</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(55.943242, 63.245918)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(30.18, 32.08)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:52.140000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4588235294117647</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(27.76, 40.18)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:03.599751', '0:00:07.761836')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1116727941176471</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7/3', 'D', 'D']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(112.99, 115.33)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(18.95455, 23.411533)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2132352941176471</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.936167, 42.951678)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(19.435, 32.669)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1891625615763547</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'C:7', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.31, 23.575)]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(200.38, 213.6)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2426739926739927</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(17.016, 25.693)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(20.432, 26.25)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_41</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07849172758753367</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F', 'C:7', 'F']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(19.14, 21.62)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(11.21, 14.45)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
